--- a/data/pca/factorExposure/factorExposure_2016-08-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01257250529842775</v>
+        <v>0.01345264001636884</v>
       </c>
       <c r="C2">
-        <v>-0.05399220746253541</v>
+        <v>0.04339354705372941</v>
       </c>
       <c r="D2">
-        <v>-0.03923658037458225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06264279844891614</v>
+      </c>
+      <c r="E2">
+        <v>-0.07044620875085383</v>
+      </c>
+      <c r="F2">
+        <v>0.06900589347615146</v>
+      </c>
+      <c r="G2">
+        <v>0.03402297677090093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.06679959508819153</v>
+        <v>0.03103191526032882</v>
       </c>
       <c r="C3">
-        <v>-0.0947513630594809</v>
+        <v>0.08187137664934192</v>
       </c>
       <c r="D3">
-        <v>-0.09773906959631536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08773918471637446</v>
+      </c>
+      <c r="E3">
+        <v>-0.07880607771417097</v>
+      </c>
+      <c r="F3">
+        <v>-0.01453033331827235</v>
+      </c>
+      <c r="G3">
+        <v>-0.03729178680434867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06785135932477693</v>
+        <v>0.05768085456853426</v>
       </c>
       <c r="C4">
-        <v>-0.05856546943206063</v>
+        <v>0.06631202574959781</v>
       </c>
       <c r="D4">
-        <v>-0.02696976134924412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05837221429487102</v>
+      </c>
+      <c r="E4">
+        <v>-0.06924842793114824</v>
+      </c>
+      <c r="F4">
+        <v>0.07593356459853899</v>
+      </c>
+      <c r="G4">
+        <v>-0.03920172644274738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04250886511852812</v>
+        <v>0.03534247842326248</v>
       </c>
       <c r="C6">
-        <v>-0.03558522854415345</v>
+        <v>0.03158773105549081</v>
       </c>
       <c r="D6">
-        <v>-0.0289363559992449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06290202621940952</v>
+      </c>
+      <c r="E6">
+        <v>-0.0738423190086106</v>
+      </c>
+      <c r="F6">
+        <v>0.05884563456925782</v>
+      </c>
+      <c r="G6">
+        <v>-0.0232069201346779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02241240990783179</v>
+        <v>0.01896925246168873</v>
       </c>
       <c r="C7">
-        <v>-0.0441005189118833</v>
+        <v>0.03900611526650827</v>
       </c>
       <c r="D7">
-        <v>0.003894344360774686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03640861347212571</v>
+      </c>
+      <c r="E7">
+        <v>-0.04978362194734762</v>
+      </c>
+      <c r="F7">
+        <v>0.09958752131904761</v>
+      </c>
+      <c r="G7">
+        <v>-0.008562212833842734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.002920486005445337</v>
+        <v>0.003274735791357737</v>
       </c>
       <c r="C8">
-        <v>-0.02780744802982576</v>
+        <v>0.02921607261800269</v>
       </c>
       <c r="D8">
-        <v>-0.03190515661816094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03130406968898203</v>
+      </c>
+      <c r="E8">
+        <v>-0.05076902931588557</v>
+      </c>
+      <c r="F8">
+        <v>0.04158432690052952</v>
+      </c>
+      <c r="G8">
+        <v>-0.01068984450782167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03770100314751422</v>
+        <v>0.03656131321611635</v>
       </c>
       <c r="C9">
-        <v>-0.04319091936669732</v>
+        <v>0.05286478923119056</v>
       </c>
       <c r="D9">
-        <v>-0.01373576188896134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04233922509260016</v>
+      </c>
+      <c r="E9">
+        <v>-0.05766151278047295</v>
+      </c>
+      <c r="F9">
+        <v>0.08366545455894328</v>
+      </c>
+      <c r="G9">
+        <v>-0.02406690400220618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.06681764771635221</v>
+        <v>0.09916978015833433</v>
       </c>
       <c r="C10">
-        <v>0.1975503878878495</v>
+        <v>-0.195635751430147</v>
       </c>
       <c r="D10">
-        <v>0.01206701193513789</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.005718310547621946</v>
+      </c>
+      <c r="E10">
+        <v>-0.0446286100821966</v>
+      </c>
+      <c r="F10">
+        <v>0.04078871316865985</v>
+      </c>
+      <c r="G10">
+        <v>-0.009636340212291955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04278882320227141</v>
+        <v>0.03642405278302858</v>
       </c>
       <c r="C11">
-        <v>-0.05343442695613703</v>
+        <v>0.05143808029577124</v>
       </c>
       <c r="D11">
-        <v>-0.01320682486125081</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03363863793815033</v>
+      </c>
+      <c r="E11">
+        <v>-0.0156775714366334</v>
+      </c>
+      <c r="F11">
+        <v>0.06437368477018364</v>
+      </c>
+      <c r="G11">
+        <v>-0.01580574739787343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04248753827839247</v>
+        <v>0.03729143048777883</v>
       </c>
       <c r="C12">
-        <v>-0.04851709262361798</v>
+        <v>0.04770546356550323</v>
       </c>
       <c r="D12">
-        <v>-0.001466409409694778</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02511258838664845</v>
+      </c>
+      <c r="E12">
+        <v>-0.02358742713643168</v>
+      </c>
+      <c r="F12">
+        <v>0.06618842545398734</v>
+      </c>
+      <c r="G12">
+        <v>-0.01279844379575557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01821768693178026</v>
+        <v>0.01227193739962351</v>
       </c>
       <c r="C13">
-        <v>-0.04906504028738178</v>
+        <v>0.04356340700031171</v>
       </c>
       <c r="D13">
-        <v>-0.02129356091323942</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05936055179352435</v>
+      </c>
+      <c r="E13">
+        <v>-0.08344386285275147</v>
+      </c>
+      <c r="F13">
+        <v>0.09956940765262071</v>
+      </c>
+      <c r="G13">
+        <v>-0.02091972241600814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009423248418681864</v>
+        <v>0.004917744028796896</v>
       </c>
       <c r="C14">
-        <v>-0.0346890481554699</v>
+        <v>0.03232313658422127</v>
       </c>
       <c r="D14">
-        <v>0.01603124388477066</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02464553419499073</v>
+      </c>
+      <c r="E14">
+        <v>-0.03912755871150408</v>
+      </c>
+      <c r="F14">
+        <v>0.09378274488908396</v>
+      </c>
+      <c r="G14">
+        <v>0.006413440000178121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0007500162724733744</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005485426975440289</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.006584343138909592</v>
+      </c>
+      <c r="E15">
+        <v>-0.001453912535111627</v>
+      </c>
+      <c r="F15">
+        <v>0.00451798384783414</v>
+      </c>
+      <c r="G15">
+        <v>-0.0004901105065475898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03886095192214545</v>
+        <v>0.03386705891442991</v>
       </c>
       <c r="C16">
-        <v>-0.04617980260231739</v>
+        <v>0.04541707537905494</v>
       </c>
       <c r="D16">
-        <v>-0.007540758538030317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02688558382672727</v>
+      </c>
+      <c r="E16">
+        <v>-0.03004568672577859</v>
+      </c>
+      <c r="F16">
+        <v>0.06716858661251425</v>
+      </c>
+      <c r="G16">
+        <v>-0.002282566714048711</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02860484175213689</v>
+        <v>0.01664388871795952</v>
       </c>
       <c r="C19">
-        <v>-0.06127714445890293</v>
+        <v>0.05086759706327517</v>
       </c>
       <c r="D19">
-        <v>-0.0753193548008206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.0894314033195191</v>
+      </c>
+      <c r="E19">
+        <v>-0.1008811914596791</v>
+      </c>
+      <c r="F19">
+        <v>0.07648385022822504</v>
+      </c>
+      <c r="G19">
+        <v>0.02135134530013188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01951198037028827</v>
+        <v>0.01351000403748349</v>
       </c>
       <c r="C20">
-        <v>-0.0450381663319422</v>
+        <v>0.04131087406209946</v>
       </c>
       <c r="D20">
-        <v>-0.01570453072976484</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03611002037510785</v>
+      </c>
+      <c r="E20">
+        <v>-0.06971829897398038</v>
+      </c>
+      <c r="F20">
+        <v>0.07873632269937771</v>
+      </c>
+      <c r="G20">
+        <v>-0.005948007037489295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01434335722192028</v>
+        <v>0.008937041989427394</v>
       </c>
       <c r="C21">
-        <v>-0.04783610837060967</v>
+        <v>0.0451356067748707</v>
       </c>
       <c r="D21">
-        <v>-0.03753629204080035</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06596056657230844</v>
+      </c>
+      <c r="E21">
+        <v>-0.09648045547104235</v>
+      </c>
+      <c r="F21">
+        <v>0.122578591660468</v>
+      </c>
+      <c r="G21">
+        <v>-0.009108501032490684</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001989949000295514</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0231579076038402</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03579776580271535</v>
+      </c>
+      <c r="E22">
+        <v>-0.02717220428762998</v>
+      </c>
+      <c r="F22">
+        <v>0.01486189534063596</v>
+      </c>
+      <c r="G22">
+        <v>-0.03920891093854056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002057876230665176</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02328103438315139</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03545936446270181</v>
+      </c>
+      <c r="E23">
+        <v>-0.02741824133063902</v>
+      </c>
+      <c r="F23">
+        <v>0.01469626708954307</v>
+      </c>
+      <c r="G23">
+        <v>-0.03940865737377476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03436005762840752</v>
+        <v>0.03360799248028824</v>
       </c>
       <c r="C24">
-        <v>-0.05047665624041188</v>
+        <v>0.05358309339695895</v>
       </c>
       <c r="D24">
-        <v>-0.006931700726992191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02600760580675206</v>
+      </c>
+      <c r="E24">
+        <v>-0.02761113666863965</v>
+      </c>
+      <c r="F24">
+        <v>0.07580590355863751</v>
+      </c>
+      <c r="G24">
+        <v>-0.01002938870029591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0491396881845465</v>
+        <v>0.04390820417179766</v>
       </c>
       <c r="C25">
-        <v>-0.05930340541680686</v>
+        <v>0.05679271537940343</v>
       </c>
       <c r="D25">
-        <v>0.002487146847890613</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02463618642420715</v>
+      </c>
+      <c r="E25">
+        <v>-0.02191731345867363</v>
+      </c>
+      <c r="F25">
+        <v>0.07802328600881171</v>
+      </c>
+      <c r="G25">
+        <v>-0.02699744615231601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01677904718759344</v>
+        <v>0.01383032398838909</v>
       </c>
       <c r="C26">
-        <v>-0.0156541176638473</v>
+        <v>0.01730248424679936</v>
       </c>
       <c r="D26">
-        <v>0.001644830651207358</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02397384222120294</v>
+      </c>
+      <c r="E26">
+        <v>-0.0394216799660914</v>
+      </c>
+      <c r="F26">
+        <v>0.0685786606034659</v>
+      </c>
+      <c r="G26">
+        <v>0.01326818237438972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.07642772327713364</v>
+        <v>0.1336270084279628</v>
       </c>
       <c r="C28">
-        <v>0.2334556444485367</v>
+        <v>-0.2459739809026609</v>
       </c>
       <c r="D28">
-        <v>0.01060126508184377</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02194417094872837</v>
+      </c>
+      <c r="E28">
+        <v>-0.04659113762924851</v>
+      </c>
+      <c r="F28">
+        <v>0.05717394752285949</v>
+      </c>
+      <c r="G28">
+        <v>-0.02248821058787194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01095087927887575</v>
+        <v>0.005883759434526189</v>
       </c>
       <c r="C29">
-        <v>-0.02780078741203745</v>
+        <v>0.02770814315533119</v>
       </c>
       <c r="D29">
-        <v>0.02152489516069186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01859134045551282</v>
+      </c>
+      <c r="E29">
+        <v>-0.03902825727886094</v>
+      </c>
+      <c r="F29">
+        <v>0.08692525454486026</v>
+      </c>
+      <c r="G29">
+        <v>-0.005951117461946936</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.05546867599833596</v>
+        <v>0.04226409167014303</v>
       </c>
       <c r="C30">
-        <v>-0.05727419105861144</v>
+        <v>0.06496289256378457</v>
       </c>
       <c r="D30">
-        <v>-0.06944456824372273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1064698812703984</v>
+      </c>
+      <c r="E30">
+        <v>-0.06580952775094975</v>
+      </c>
+      <c r="F30">
+        <v>0.09235445885558452</v>
+      </c>
+      <c r="G30">
+        <v>0.0124108939115265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05515923286937273</v>
+        <v>0.05482786703885528</v>
       </c>
       <c r="C31">
-        <v>-0.03330649471305552</v>
+        <v>0.05491291899261319</v>
       </c>
       <c r="D31">
-        <v>0.02965550830295598</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01282882633229165</v>
+      </c>
+      <c r="E31">
+        <v>-0.05664718135869781</v>
+      </c>
+      <c r="F31">
+        <v>0.07377316999304531</v>
+      </c>
+      <c r="G31">
+        <v>-0.04899957765402806</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001697183946760163</v>
+        <v>0.005026948113803074</v>
       </c>
       <c r="C32">
-        <v>-0.04284871048769435</v>
+        <v>0.03369252620653235</v>
       </c>
       <c r="D32">
-        <v>-0.04215845076327731</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0509190749318116</v>
+      </c>
+      <c r="E32">
+        <v>-0.04019773955034472</v>
+      </c>
+      <c r="F32">
+        <v>0.06660221483651182</v>
+      </c>
+      <c r="G32">
+        <v>0.009733409996627073</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03126953536459734</v>
+        <v>0.02472584527624996</v>
       </c>
       <c r="C33">
-        <v>-0.06122389516433312</v>
+        <v>0.05563431521621413</v>
       </c>
       <c r="D33">
-        <v>-0.04218027081374091</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07638432854047024</v>
+      </c>
+      <c r="E33">
+        <v>-0.07285498228439002</v>
+      </c>
+      <c r="F33">
+        <v>0.1180015452658551</v>
+      </c>
+      <c r="G33">
+        <v>-0.02225949413381238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04737032955813034</v>
+        <v>0.04121752157329442</v>
       </c>
       <c r="C34">
-        <v>-0.06440948535415501</v>
+        <v>0.06385023363151877</v>
       </c>
       <c r="D34">
-        <v>-0.008953112603766272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03390039913619697</v>
+      </c>
+      <c r="E34">
+        <v>-0.002725117873282252</v>
+      </c>
+      <c r="F34">
+        <v>0.07763168949336051</v>
+      </c>
+      <c r="G34">
+        <v>-0.0119054324035344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01398951242694366</v>
+        <v>0.01302999178570241</v>
       </c>
       <c r="C36">
-        <v>-0.01596951658859272</v>
+        <v>0.01286868771314368</v>
       </c>
       <c r="D36">
-        <v>0.00394110971172434</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02542158466230441</v>
+      </c>
+      <c r="E36">
+        <v>-0.04594310267756908</v>
+      </c>
+      <c r="F36">
+        <v>0.07536326996207179</v>
+      </c>
+      <c r="G36">
+        <v>-0.01030636214924199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03202616532083988</v>
+        <v>0.02449563073713699</v>
       </c>
       <c r="C38">
-        <v>-0.02919450594615921</v>
+        <v>0.02497864059988278</v>
       </c>
       <c r="D38">
-        <v>0.007132382253180796</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0243945434816408</v>
+      </c>
+      <c r="E38">
+        <v>-0.04476231401406052</v>
+      </c>
+      <c r="F38">
+        <v>0.06324980470753354</v>
+      </c>
+      <c r="G38">
+        <v>-0.005657818662001393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.0469849847781186</v>
+        <v>0.03944450062779927</v>
       </c>
       <c r="C39">
-        <v>-0.07160072852405486</v>
+        <v>0.06863025824267849</v>
       </c>
       <c r="D39">
-        <v>-0.02468310653275665</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05214092425749785</v>
+      </c>
+      <c r="E39">
+        <v>-0.03323582555922735</v>
+      </c>
+      <c r="F39">
+        <v>0.08629017647669528</v>
+      </c>
+      <c r="G39">
+        <v>0.01343853228394293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01767550384259883</v>
+        <v>0.0155553433916009</v>
       </c>
       <c r="C40">
-        <v>-0.03925140185054672</v>
+        <v>0.04057085997950439</v>
       </c>
       <c r="D40">
-        <v>-0.03302364401195521</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0352004673410643</v>
+      </c>
+      <c r="E40">
+        <v>-0.08666795663017268</v>
+      </c>
+      <c r="F40">
+        <v>0.06958383230364459</v>
+      </c>
+      <c r="G40">
+        <v>-0.04418768582256414</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01640824536992026</v>
+        <v>0.01746304328363633</v>
       </c>
       <c r="C41">
-        <v>-0.0114513446048113</v>
+        <v>0.006583323507628041</v>
       </c>
       <c r="D41">
-        <v>0.005754038297262895</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01296990306735754</v>
+      </c>
+      <c r="E41">
+        <v>-0.04799585517407578</v>
+      </c>
+      <c r="F41">
+        <v>0.06529708628278984</v>
+      </c>
+      <c r="G41">
+        <v>-0.003506334452771231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.001192259358415921</v>
+        <v>0.0008626437498896856</v>
       </c>
       <c r="C42">
-        <v>-0.007321947484730297</v>
+        <v>0.004077729129473215</v>
       </c>
       <c r="D42">
-        <v>0.00293047867282789</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.003353344732114056</v>
+      </c>
+      <c r="E42">
+        <v>-0.001417713118362045</v>
+      </c>
+      <c r="F42">
+        <v>-0.002268956342784042</v>
+      </c>
+      <c r="G42">
+        <v>0.0006168795528797567</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03671482731517228</v>
+        <v>0.02865326147838703</v>
       </c>
       <c r="C43">
-        <v>-0.02575384900157528</v>
+        <v>0.02187768331982088</v>
       </c>
       <c r="D43">
-        <v>-0.01530791798439644</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03803958005236599</v>
+      </c>
+      <c r="E43">
+        <v>-0.0605946748367954</v>
+      </c>
+      <c r="F43">
+        <v>0.07390034385763349</v>
+      </c>
+      <c r="G43">
+        <v>-0.02290899162330037</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02208322712596372</v>
+        <v>0.01408417045389837</v>
       </c>
       <c r="C44">
-        <v>-0.05671026475226926</v>
+        <v>0.05252040716483076</v>
       </c>
       <c r="D44">
-        <v>-0.01520485382195915</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03804887072653401</v>
+      </c>
+      <c r="E44">
+        <v>-0.07530165401596446</v>
+      </c>
+      <c r="F44">
+        <v>0.07486246516243389</v>
+      </c>
+      <c r="G44">
+        <v>0.002735934083307614</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.006727899067071296</v>
+        <v>0.007481846559748185</v>
       </c>
       <c r="C46">
-        <v>-0.02282496280207809</v>
+        <v>0.02591294886895795</v>
       </c>
       <c r="D46">
-        <v>0.02787133396561101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.008989902830404158</v>
+      </c>
+      <c r="E46">
+        <v>-0.04581139909668351</v>
+      </c>
+      <c r="F46">
+        <v>0.09867425651366522</v>
+      </c>
+      <c r="G46">
+        <v>-0.00123115005523896</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08557478495502505</v>
+        <v>0.08720253210884267</v>
       </c>
       <c r="C47">
-        <v>-0.06646850484075834</v>
+        <v>0.07986233010478552</v>
       </c>
       <c r="D47">
-        <v>0.02875601069524986</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02029904188235439</v>
+      </c>
+      <c r="E47">
+        <v>-0.06178530896180071</v>
+      </c>
+      <c r="F47">
+        <v>0.07282774031217797</v>
+      </c>
+      <c r="G47">
+        <v>-0.0518141768083079</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.0205265212258489</v>
+        <v>0.01580432660481058</v>
       </c>
       <c r="C48">
-        <v>-0.01400186670818241</v>
+        <v>0.0179640413161533</v>
       </c>
       <c r="D48">
-        <v>0.01736882358566099</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01447546325603227</v>
+      </c>
+      <c r="E48">
+        <v>-0.0579102241765447</v>
+      </c>
+      <c r="F48">
+        <v>0.08942809767774994</v>
+      </c>
+      <c r="G48">
+        <v>-0.01000016081465517</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08553946367411945</v>
+        <v>0.07105679689248434</v>
       </c>
       <c r="C50">
-        <v>-0.06733344378189703</v>
+        <v>0.07180821107252931</v>
       </c>
       <c r="D50">
-        <v>0.03659199024437062</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.007800705445400362</v>
+      </c>
+      <c r="E50">
+        <v>-0.06286748880840112</v>
+      </c>
+      <c r="F50">
+        <v>0.06095997385682323</v>
+      </c>
+      <c r="G50">
+        <v>-0.07353126422943941</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01801176072948167</v>
+        <v>0.01086253680641877</v>
       </c>
       <c r="C51">
-        <v>-0.04722060207857535</v>
+        <v>0.03424282058945865</v>
       </c>
       <c r="D51">
-        <v>-0.02127076236376773</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04795512232059602</v>
+      </c>
+      <c r="E51">
+        <v>-0.0373810090945132</v>
+      </c>
+      <c r="F51">
+        <v>0.07639521097506233</v>
+      </c>
+      <c r="G51">
+        <v>0.01865365040571972</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08681314319187078</v>
+        <v>0.09402145016008474</v>
       </c>
       <c r="C53">
-        <v>-0.07092350683487356</v>
+        <v>0.08614263851173887</v>
       </c>
       <c r="D53">
-        <v>0.04050074207445133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04304517868256909</v>
+      </c>
+      <c r="E53">
+        <v>-0.05740152470536207</v>
+      </c>
+      <c r="F53">
+        <v>0.08403251087031649</v>
+      </c>
+      <c r="G53">
+        <v>-0.06402694335992885</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03441678266790763</v>
+        <v>0.0282113577672221</v>
       </c>
       <c r="C54">
-        <v>-0.02270290221375626</v>
+        <v>0.02641477741916284</v>
       </c>
       <c r="D54">
-        <v>0.00762370411411452</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02733372424304194</v>
+      </c>
+      <c r="E54">
+        <v>-0.0496705360821059</v>
+      </c>
+      <c r="F54">
+        <v>0.09454103811041292</v>
+      </c>
+      <c r="G54">
+        <v>-0.006519763409741318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07829658382431562</v>
+        <v>0.08534051010000457</v>
       </c>
       <c r="C55">
-        <v>-0.05557830364475994</v>
+        <v>0.06996495172937474</v>
       </c>
       <c r="D55">
-        <v>0.04722622527719569</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0499910039159474</v>
+      </c>
+      <c r="E55">
+        <v>-0.04527265392204457</v>
+      </c>
+      <c r="F55">
+        <v>0.05900161408223722</v>
+      </c>
+      <c r="G55">
+        <v>-0.05219426721434643</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1520200701037382</v>
+        <v>0.1468384873828898</v>
       </c>
       <c r="C56">
-        <v>-0.08516368029546578</v>
+        <v>0.1037074396065228</v>
       </c>
       <c r="D56">
-        <v>0.05221191017497239</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05367226013707361</v>
+      </c>
+      <c r="E56">
+        <v>-0.04706496610698408</v>
+      </c>
+      <c r="F56">
+        <v>0.04492100395816195</v>
+      </c>
+      <c r="G56">
+        <v>-0.05961197701778553</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.001986396193173634</v>
+        <v>0.0009298744875360956</v>
       </c>
       <c r="C57">
-        <v>-0.00230054287230221</v>
+        <v>0.001597326703269797</v>
       </c>
       <c r="D57">
-        <v>-0.01812255452999951</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01364872894278545</v>
+      </c>
+      <c r="E57">
+        <v>-0.009356331146844643</v>
+      </c>
+      <c r="F57">
+        <v>0.008261536158716108</v>
+      </c>
+      <c r="G57">
+        <v>-0.005226250805105746</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.0709164466460059</v>
+        <v>0.02906540489572011</v>
       </c>
       <c r="C58">
-        <v>-0.01785738175339969</v>
+        <v>0.03752234822486037</v>
       </c>
       <c r="D58">
-        <v>-0.7375346212223541</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4028000637892336</v>
+      </c>
+      <c r="E58">
+        <v>-0.6699244683902881</v>
+      </c>
+      <c r="F58">
+        <v>-0.5382941307117839</v>
+      </c>
+      <c r="G58">
+        <v>0.06043901109512687</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1249535413328793</v>
+        <v>0.1442461489256156</v>
       </c>
       <c r="C59">
-        <v>0.2068700718800401</v>
+        <v>-0.1871046932915944</v>
       </c>
       <c r="D59">
-        <v>-0.0146370203952748</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03021461034224616</v>
+      </c>
+      <c r="E59">
+        <v>-0.02957373233071427</v>
+      </c>
+      <c r="F59">
+        <v>0.0228146920591009</v>
+      </c>
+      <c r="G59">
+        <v>0.02849325552779253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.31408859642253</v>
+        <v>0.2836653185033429</v>
       </c>
       <c r="C60">
-        <v>-0.07019291085299335</v>
+        <v>0.0968641843527375</v>
       </c>
       <c r="D60">
-        <v>-0.1156356396118462</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2260387540230895</v>
+      </c>
+      <c r="E60">
+        <v>0.2625630537622099</v>
+      </c>
+      <c r="F60">
+        <v>-0.09231485063117427</v>
+      </c>
+      <c r="G60">
+        <v>-0.04374501276969891</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04365327485184012</v>
+        <v>0.04088355033485958</v>
       </c>
       <c r="C61">
-        <v>-0.06299005411710176</v>
+        <v>0.06221684668474714</v>
       </c>
       <c r="D61">
-        <v>-0.01490888837616212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04482143330656432</v>
+      </c>
+      <c r="E61">
+        <v>-0.03655385241828676</v>
+      </c>
+      <c r="F61">
+        <v>0.07675285931260684</v>
+      </c>
+      <c r="G61">
+        <v>-0.01282810577524497</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01735971773524373</v>
+        <v>0.01511336899432504</v>
       </c>
       <c r="C63">
-        <v>-0.03536816639380256</v>
+        <v>0.03292451460935732</v>
       </c>
       <c r="D63">
-        <v>0.008319872874205898</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02100602038971225</v>
+      </c>
+      <c r="E63">
+        <v>-0.04885582965173872</v>
+      </c>
+      <c r="F63">
+        <v>0.06988641572581555</v>
+      </c>
+      <c r="G63">
+        <v>-0.02891078889966247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05160508135262742</v>
+        <v>0.05566970189803939</v>
       </c>
       <c r="C64">
-        <v>-0.03835388441967461</v>
+        <v>0.05435829718226406</v>
       </c>
       <c r="D64">
-        <v>0.008537336042588344</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.00539470781756736</v>
+      </c>
+      <c r="E64">
+        <v>-0.0291589146661524</v>
+      </c>
+      <c r="F64">
+        <v>0.08374229246391834</v>
+      </c>
+      <c r="G64">
+        <v>-0.01071565157361085</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.09358023981486607</v>
+        <v>0.06932114530513837</v>
       </c>
       <c r="C65">
-        <v>-0.02213801265179017</v>
+        <v>0.03228682827961582</v>
       </c>
       <c r="D65">
-        <v>-0.04411660858685029</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08443983605625216</v>
+      </c>
+      <c r="E65">
+        <v>-0.04429396233483091</v>
+      </c>
+      <c r="F65">
+        <v>0.008751540072596415</v>
+      </c>
+      <c r="G65">
+        <v>-0.001593223424566384</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06743782982150584</v>
+        <v>0.05230650263843335</v>
       </c>
       <c r="C66">
-        <v>-0.1002946163736574</v>
+        <v>0.09077824118951351</v>
       </c>
       <c r="D66">
-        <v>-0.04298242803987643</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07932839327875064</v>
+      </c>
+      <c r="E66">
+        <v>-0.04099889550538379</v>
+      </c>
+      <c r="F66">
+        <v>0.08627094346414881</v>
+      </c>
+      <c r="G66">
+        <v>-0.003892684441782877</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05347644037971212</v>
+        <v>0.04649769749372403</v>
       </c>
       <c r="C67">
-        <v>-0.03271099259928389</v>
+        <v>0.0307352002652867</v>
       </c>
       <c r="D67">
-        <v>0.009438262155271354</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0112684415208303</v>
+      </c>
+      <c r="E67">
+        <v>-0.02402624674265921</v>
+      </c>
+      <c r="F67">
+        <v>0.05182291172925887</v>
+      </c>
+      <c r="G67">
+        <v>-0.01224791446781179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.105869887627379</v>
+        <v>0.149312340752253</v>
       </c>
       <c r="C68">
-        <v>0.2931037614845627</v>
+        <v>-0.2523068473731229</v>
       </c>
       <c r="D68">
-        <v>0.01503181865026536</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02154586347266604</v>
+      </c>
+      <c r="E68">
+        <v>-0.04080144303031623</v>
+      </c>
+      <c r="F68">
+        <v>0.0136739800944137</v>
+      </c>
+      <c r="G68">
+        <v>-0.01064779159821279</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09240460030295559</v>
+        <v>0.08717242734009402</v>
       </c>
       <c r="C69">
-        <v>-0.0657159696822311</v>
+        <v>0.08566965524808212</v>
       </c>
       <c r="D69">
-        <v>0.04240860355912621</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01109666378106493</v>
+      </c>
+      <c r="E69">
+        <v>-0.04497814835484769</v>
+      </c>
+      <c r="F69">
+        <v>0.08988750060852618</v>
+      </c>
+      <c r="G69">
+        <v>-0.02951125434173188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1025835988211375</v>
+        <v>0.1417655674453048</v>
       </c>
       <c r="C71">
-        <v>0.2527335010852552</v>
+        <v>-0.2338576864809949</v>
       </c>
       <c r="D71">
-        <v>-0.01500846704661012</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.009657273455187392</v>
+      </c>
+      <c r="E71">
+        <v>-0.06649711891391616</v>
+      </c>
+      <c r="F71">
+        <v>0.05429343361038853</v>
+      </c>
+      <c r="G71">
+        <v>-0.03505776322428915</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09004822403284378</v>
+        <v>0.09748365929919645</v>
       </c>
       <c r="C72">
-        <v>-0.04553935783674801</v>
+        <v>0.05487926558259882</v>
       </c>
       <c r="D72">
-        <v>-0.0001232608417401305</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02432315280285842</v>
+      </c>
+      <c r="E72">
+        <v>-0.02378062715935401</v>
+      </c>
+      <c r="F72">
+        <v>0.07370543596122263</v>
+      </c>
+      <c r="G72">
+        <v>-0.02890515746163078</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4235485387785218</v>
+        <v>0.3472716915466961</v>
       </c>
       <c r="C73">
-        <v>-0.03660142659093717</v>
+        <v>0.07789334061723298</v>
       </c>
       <c r="D73">
-        <v>-0.3151591945507455</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4751665980199887</v>
+      </c>
+      <c r="E73">
+        <v>0.4685011570865232</v>
+      </c>
+      <c r="F73">
+        <v>-0.2510722730259146</v>
+      </c>
+      <c r="G73">
+        <v>-0.09787162895638966</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1163142678680675</v>
+        <v>0.1117309276195515</v>
       </c>
       <c r="C74">
-        <v>-0.09722100650252982</v>
+        <v>0.09905009521585424</v>
       </c>
       <c r="D74">
-        <v>0.02874833906419312</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03461042821872019</v>
+      </c>
+      <c r="E74">
+        <v>-0.06530100233570064</v>
+      </c>
+      <c r="F74">
+        <v>0.04591045217713234</v>
+      </c>
+      <c r="G74">
+        <v>-0.07290319805862183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2516762774542037</v>
+        <v>0.2575296788622303</v>
       </c>
       <c r="C75">
-        <v>-0.1038074103281213</v>
+        <v>0.1319537741879294</v>
       </c>
       <c r="D75">
-        <v>0.08947409002422273</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1333748334544214</v>
+      </c>
+      <c r="E75">
+        <v>-0.06635246760281967</v>
+      </c>
+      <c r="F75">
+        <v>0.01162283883987249</v>
+      </c>
+      <c r="G75">
+        <v>-0.07663486845298559</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.117476773896772</v>
+        <v>0.1288491319067002</v>
       </c>
       <c r="C76">
-        <v>-0.08760063584712188</v>
+        <v>0.1002897747027234</v>
       </c>
       <c r="D76">
-        <v>0.04424322350019752</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06103579228024698</v>
+      </c>
+      <c r="E76">
+        <v>-0.0704240622066879</v>
+      </c>
+      <c r="F76">
+        <v>0.0631828793644586</v>
+      </c>
+      <c r="G76">
+        <v>-0.06246129961262046</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07975540171702714</v>
+        <v>0.06278482177798959</v>
       </c>
       <c r="C77">
-        <v>-0.05229002162725477</v>
+        <v>0.06986512237409567</v>
       </c>
       <c r="D77">
-        <v>-0.06377716255198544</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06405739569351036</v>
+      </c>
+      <c r="E77">
+        <v>-0.09094617909733906</v>
+      </c>
+      <c r="F77">
+        <v>0.1101606289402298</v>
+      </c>
+      <c r="G77">
+        <v>0.1350703570388445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05098922890086744</v>
+        <v>0.0432926007929144</v>
       </c>
       <c r="C78">
-        <v>-0.03913307884020242</v>
+        <v>0.05612895781343726</v>
       </c>
       <c r="D78">
-        <v>-0.02589406931647932</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07121123430618616</v>
+      </c>
+      <c r="E78">
+        <v>-0.04364789617476814</v>
+      </c>
+      <c r="F78">
+        <v>0.09693985705565913</v>
+      </c>
+      <c r="G78">
+        <v>-0.005126329788206682</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02538233573032392</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03766214044015726</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0622040175042486</v>
+      </c>
+      <c r="E79">
+        <v>-0.0501578349192881</v>
+      </c>
+      <c r="F79">
+        <v>0.03971472026145095</v>
+      </c>
+      <c r="G79">
+        <v>-0.06731266054208046</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0471798081379242</v>
+        <v>0.03488896428692187</v>
       </c>
       <c r="C80">
-        <v>-0.05045821354594511</v>
+        <v>0.05525834966184724</v>
       </c>
       <c r="D80">
-        <v>-0.03467598968885634</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04500988338458652</v>
+      </c>
+      <c r="E80">
+        <v>-0.01766460299807519</v>
+      </c>
+      <c r="F80">
+        <v>0.03472027076163763</v>
+      </c>
+      <c r="G80">
+        <v>0.04633654847993087</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1419458397973015</v>
+        <v>0.1410183164982395</v>
       </c>
       <c r="C81">
-        <v>-0.07160466346289267</v>
+        <v>0.09557080836516763</v>
       </c>
       <c r="D81">
-        <v>0.05999890671187708</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1017558500348171</v>
+      </c>
+      <c r="E81">
+        <v>-0.07864439986469055</v>
+      </c>
+      <c r="F81">
+        <v>0.008400728867646218</v>
+      </c>
+      <c r="G81">
+        <v>-0.05615360339095712</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1577842953240293</v>
+        <v>0.2012454641548585</v>
       </c>
       <c r="C82">
-        <v>-0.05422397746125168</v>
+        <v>0.1346232405419838</v>
       </c>
       <c r="D82">
-        <v>0.1532116005519265</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2357594765122691</v>
+      </c>
+      <c r="E82">
+        <v>0.00839490508198816</v>
+      </c>
+      <c r="F82">
+        <v>0.1009308635708122</v>
+      </c>
+      <c r="G82">
+        <v>-0.04352152871742</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03618515079069257</v>
+        <v>0.02805347574542052</v>
       </c>
       <c r="C83">
-        <v>-0.02125931705273911</v>
+        <v>0.04107398781280999</v>
       </c>
       <c r="D83">
-        <v>-0.03794004068018531</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03416175417216172</v>
+      </c>
+      <c r="E83">
+        <v>-0.01973028510974277</v>
+      </c>
+      <c r="F83">
+        <v>0.04409564256768524</v>
+      </c>
+      <c r="G83">
+        <v>0.01974836050167901</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2205963146406386</v>
+        <v>0.2048203336218515</v>
       </c>
       <c r="C85">
-        <v>-0.09915400957547633</v>
+        <v>0.118971831072091</v>
       </c>
       <c r="D85">
-        <v>0.1131131827673116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1003137376080602</v>
+      </c>
+      <c r="E85">
+        <v>0.006050330020849484</v>
+      </c>
+      <c r="F85">
+        <v>-0.01828752720796412</v>
+      </c>
+      <c r="G85">
+        <v>-0.1286290077173437</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01398451155191983</v>
+        <v>0.01148263315729086</v>
       </c>
       <c r="C86">
-        <v>-0.03463212809295665</v>
+        <v>0.0310945474807396</v>
       </c>
       <c r="D86">
-        <v>-0.04455053316790971</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06736199580461047</v>
+      </c>
+      <c r="E86">
+        <v>-0.06230980220097668</v>
+      </c>
+      <c r="F86">
+        <v>0.1338840717538905</v>
+      </c>
+      <c r="G86">
+        <v>0.008659170481891354</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.0237191191725686</v>
+        <v>0.02151823175517425</v>
       </c>
       <c r="C87">
-        <v>-0.01805915388477224</v>
+        <v>0.02204662302016539</v>
       </c>
       <c r="D87">
-        <v>-0.09679418724372693</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08839396845050829</v>
+      </c>
+      <c r="E87">
+        <v>-0.1118897498666161</v>
+      </c>
+      <c r="F87">
+        <v>0.07514053417891595</v>
+      </c>
+      <c r="G87">
+        <v>0.03630057287327493</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1068184292209215</v>
+        <v>0.09188050283035616</v>
       </c>
       <c r="C88">
-        <v>-0.06919589217925974</v>
+        <v>0.06256319044053546</v>
       </c>
       <c r="D88">
-        <v>0.0296792066353012</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.006592453617896054</v>
+      </c>
+      <c r="E88">
+        <v>-0.04131330216299921</v>
+      </c>
+      <c r="F88">
+        <v>0.07035687403003399</v>
+      </c>
+      <c r="G88">
+        <v>0.02888351322784053</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1646078455661696</v>
+        <v>0.2211189192636094</v>
       </c>
       <c r="C89">
-        <v>0.3836335805467254</v>
+        <v>-0.3799397777089126</v>
       </c>
       <c r="D89">
-        <v>0.01299825623666198</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.007471372563769198</v>
+      </c>
+      <c r="E89">
+        <v>-0.06324363635296024</v>
+      </c>
+      <c r="F89">
+        <v>0.07450756134583655</v>
+      </c>
+      <c r="G89">
+        <v>0.06282199410049337</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1596516301599688</v>
+        <v>0.1996707393640224</v>
       </c>
       <c r="C90">
-        <v>0.3535948719883394</v>
+        <v>-0.315670171830444</v>
       </c>
       <c r="D90">
-        <v>0.03239089703525458</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.0171546666453697</v>
+      </c>
+      <c r="E90">
+        <v>-0.06914601407019635</v>
+      </c>
+      <c r="F90">
+        <v>0.03949063827047015</v>
+      </c>
+      <c r="G90">
+        <v>0.01113339168709422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1943004180488705</v>
+        <v>0.1867526342600939</v>
       </c>
       <c r="C91">
-        <v>-0.1132684210590535</v>
+        <v>0.1392554636924012</v>
       </c>
       <c r="D91">
-        <v>0.08491060136322751</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1112901548635697</v>
+      </c>
+      <c r="E91">
+        <v>-0.05771345269089742</v>
+      </c>
+      <c r="F91">
+        <v>0.03382523757005181</v>
+      </c>
+      <c r="G91">
+        <v>-0.06077478737579128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1544325668747991</v>
+        <v>0.1813751962984824</v>
       </c>
       <c r="C92">
-        <v>0.2948642004716403</v>
+        <v>-0.2840913319196258</v>
       </c>
       <c r="D92">
-        <v>0.02096589834095722</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.006362361036288357</v>
+      </c>
+      <c r="E92">
+        <v>-0.07136488090991693</v>
+      </c>
+      <c r="F92">
+        <v>0.08136383868111552</v>
+      </c>
+      <c r="G92">
+        <v>0.007302712888078261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1821870349913174</v>
+        <v>0.2237406613327303</v>
       </c>
       <c r="C93">
-        <v>0.3494177118703968</v>
+        <v>-0.3201003932923331</v>
       </c>
       <c r="D93">
-        <v>0.0252014160555087</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.003354704975781214</v>
+      </c>
+      <c r="E93">
+        <v>-0.05251489266015307</v>
+      </c>
+      <c r="F93">
+        <v>0.038672599513531</v>
+      </c>
+      <c r="G93">
+        <v>-0.02701457490877478</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3398266618921482</v>
+        <v>0.3428853463316076</v>
       </c>
       <c r="C94">
-        <v>-0.1306500991034028</v>
+        <v>0.1831519066906769</v>
       </c>
       <c r="D94">
-        <v>0.428280636803155</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4955323097656381</v>
+      </c>
+      <c r="E94">
+        <v>-0.05085509745396254</v>
+      </c>
+      <c r="F94">
+        <v>-0.4416710428014008</v>
+      </c>
+      <c r="G94">
+        <v>0.3335078528009671</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1129877348908261</v>
+        <v>0.08559489446526264</v>
       </c>
       <c r="C95">
-        <v>-0.07098404483525179</v>
+        <v>0.06725194981662061</v>
       </c>
       <c r="D95">
-        <v>-0.1125505037727703</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.170620934800543</v>
+      </c>
+      <c r="E95">
+        <v>0.09607957390077734</v>
+      </c>
+      <c r="F95">
+        <v>0.2216532690364466</v>
+      </c>
+      <c r="G95">
+        <v>0.8649831917798809</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1970239119746106</v>
+        <v>0.1876599241752366</v>
       </c>
       <c r="C98">
-        <v>-0.01331695400082155</v>
+        <v>0.04308325935633705</v>
       </c>
       <c r="D98">
-        <v>-0.1189112439039765</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1895554954926267</v>
+      </c>
+      <c r="E98">
+        <v>0.1472060819205789</v>
+      </c>
+      <c r="F98">
+        <v>-0.03228380960751498</v>
+      </c>
+      <c r="G98">
+        <v>-0.1012264202834488</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01087773065533467</v>
+        <v>0.005931423347620636</v>
       </c>
       <c r="C101">
-        <v>-0.02780799140503799</v>
+        <v>0.02745508116433243</v>
       </c>
       <c r="D101">
-        <v>0.0220670768674784</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01804982820489293</v>
+      </c>
+      <c r="E101">
+        <v>-0.03969899511957438</v>
+      </c>
+      <c r="F101">
+        <v>0.08664368279052478</v>
+      </c>
+      <c r="G101">
+        <v>-0.00487855105509464</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.124365090622204</v>
+        <v>0.1246219115070334</v>
       </c>
       <c r="C102">
-        <v>-0.07117444192258041</v>
+        <v>0.0994397058070252</v>
       </c>
       <c r="D102">
-        <v>0.03031499688718762</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04875327129350961</v>
+      </c>
+      <c r="E102">
+        <v>0.008657486867297448</v>
+      </c>
+      <c r="F102">
+        <v>0.04263751336624977</v>
+      </c>
+      <c r="G102">
+        <v>-0.02321048162126063</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
